--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gdf2-Bmpr2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gdf2-Bmpr2.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.15919737918668</v>
+        <v>1.240179</v>
       </c>
       <c r="H2">
-        <v>1.15919737918668</v>
+        <v>3.720537</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.338922461374</v>
+        <v>28.86405866666667</v>
       </c>
       <c r="N2">
-        <v>28.338922461374</v>
+        <v>86.59217600000001</v>
       </c>
       <c r="O2">
-        <v>0.299824129130442</v>
+        <v>0.3025739760541936</v>
       </c>
       <c r="P2">
-        <v>0.299824129130442</v>
+        <v>0.3025739760541936</v>
       </c>
       <c r="Q2">
-        <v>32.85040464619928</v>
+        <v>35.796599413168</v>
       </c>
       <c r="R2">
-        <v>32.85040464619928</v>
+        <v>322.169394718512</v>
       </c>
       <c r="S2">
-        <v>0.299824129130442</v>
+        <v>0.3025739760541936</v>
       </c>
       <c r="T2">
-        <v>0.299824129130442</v>
+        <v>0.3025739760541936</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.15919737918668</v>
+        <v>1.240179</v>
       </c>
       <c r="H3">
-        <v>1.15919737918668</v>
+        <v>3.720537</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.668542475896</v>
+        <v>42.68037399999999</v>
       </c>
       <c r="N3">
-        <v>42.668542475896</v>
+        <v>128.041122</v>
       </c>
       <c r="O3">
-        <v>0.4514306641876645</v>
+        <v>0.4474066038250392</v>
       </c>
       <c r="P3">
-        <v>0.4514306641876645</v>
+        <v>0.4474066038250392</v>
       </c>
       <c r="Q3">
-        <v>49.46126261177417</v>
+        <v>52.93130354694599</v>
       </c>
       <c r="R3">
-        <v>49.46126261177417</v>
+        <v>476.3817319225139</v>
       </c>
       <c r="S3">
-        <v>0.4514306641876645</v>
+        <v>0.4474066038250392</v>
       </c>
       <c r="T3">
-        <v>0.4514306641876645</v>
+        <v>0.4474066038250392</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.15919737918668</v>
+        <v>1.240179</v>
       </c>
       <c r="H4">
-        <v>1.15919737918668</v>
+        <v>3.720537</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.5110200944828</v>
+        <v>23.85061433333334</v>
       </c>
       <c r="N4">
-        <v>23.5110200944828</v>
+        <v>71.55184300000001</v>
       </c>
       <c r="O4">
-        <v>0.2487452066818934</v>
+        <v>0.2500194201207672</v>
       </c>
       <c r="P4">
-        <v>0.2487452066818934</v>
+        <v>0.2500194201207672</v>
       </c>
       <c r="Q4">
-        <v>27.25391287552983</v>
+        <v>29.579031033299</v>
       </c>
       <c r="R4">
-        <v>27.25391287552983</v>
+        <v>266.211279299691</v>
       </c>
       <c r="S4">
-        <v>0.2487452066818934</v>
+        <v>0.2500194201207672</v>
       </c>
       <c r="T4">
-        <v>0.2487452066818934</v>
+        <v>0.2500194201207672</v>
       </c>
     </row>
   </sheetData>
